--- a/biology/Zoologie/Le_Dernier_Dinosaure/Le_Dernier_Dinosaure.xlsx
+++ b/biology/Zoologie/Le_Dernier_Dinosaure/Le_Dernier_Dinosaure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dernier Dinosaure (The Last Dinosaur) est un film américano-japonais réalisé par Alexander Grasshoff et Shusei Kotani, sorti en 1977.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maston Thrust Jr, un homme d'affaires milliardaire à la tête de la Thrust Inc. envoie une expédition dans le cercle polaire sur les indications de Chuck Wade, un géologiste qui a découvert une source inépuisable de pétrole dans une région curieusement chaude mais très hostile et gardée par un Tyrannosaure. Thrust qui est aussi un chasseur mondialement réputé est accompagné de Bunta, un pisteur maasai, du Docteur Kawamoto et de Frankie Banks, une photographe récompensée du prix pulitzer ...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Last Dinosaur
 Titre français : Le Dernier Dinosaure
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Richard Boone : Maston Thrust Jr.
 Joan Van Ark : Frankie Banks
